--- a/temp_doc/PESERTA UJIAN MOODLE ADMIN.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE ADMIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE9FFAD-EA07-0242-815D-CCA0913899E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B9CA5B-060A-BD42-8D48-E5E8515332AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/temp_doc/PESERTA UJIAN MOODLE ADMIN.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE ADMIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B9CA5B-060A-BD42-8D48-E5E8515332AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BE412B-3253-B946-AD39-17BF5A8CC894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -83,19 +83,7 @@
     <t>DKV</t>
   </si>
   <si>
-    <t>Admin123Akl*</t>
-  </si>
-  <si>
-    <t>Admin123Tjkt*</t>
-  </si>
-  <si>
-    <t>Admin123Mplb*</t>
-  </si>
-  <si>
-    <t>Admin123Pm*</t>
-  </si>
-  <si>
-    <t>Admin123Dkv*</t>
+    <t>Akusayangmama*</t>
   </si>
 </sst>
 </file>
@@ -961,13 +949,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
@@ -1014,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -1032,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -1050,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -1068,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>

--- a/temp_doc/PESERTA UJIAN MOODLE ADMIN.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE ADMIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BE412B-3253-B946-AD39-17BF5A8CC894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4404E7-FCE6-6345-8E18-CFF98776D93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,9 +650,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -690,7 +690,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -796,7 +796,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -938,7 +938,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/temp_doc/PESERTA UJIAN MOODLE ADMIN.xlsx
+++ b/temp_doc/PESERTA UJIAN MOODLE ADMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4404E7-FCE6-6345-8E18-CFF98776D93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B3A142-169B-A642-9174-A829C1B4369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,14 +83,14 @@
     <t>DKV</t>
   </si>
   <si>
-    <t>Akusayangmama*</t>
+    <t>SmktkjTH46*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,25 +224,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF4D5156"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -586,11 +567,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -949,7 +927,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,108 +941,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" t="str">
         <f>CONCATENATE(A2,"@gmail.com")</f>
         <v>admin123akl@gmail.com</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" t="str">
         <f t="shared" ref="E3:E6" si="0">CONCATENATE(A3,"@gmail.com")</f>
         <v>admin123tjkt@gmail.com</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>admin123mplb@gmail.com</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>admin123pm@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>admin123dkv@gmail.com</v>
       </c>
